--- a/data/trans_orig/IP44S5_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP44S5_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACBC7C1B-9E3C-40F1-B15D-C86C5E73EFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF5B11C9-DB34-4D32-82BF-C0DCAB22D9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AD5BCD62-2D9D-471C-9833-94614B627E3A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2FB38B62-7B10-4C17-997D-F3C12E6E03E0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -504,7 +504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6ED3E2-8445-4FAB-A579-F20D6E6CFAF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D987AAE-2AC5-4B33-AA82-680A7BC80D06}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
